--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.3_KS_Holdout_seed_999/metrics/Trial_225__Reeval_Sobol_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.3_KS_Holdout_seed_999/metrics/Trial_225__Reeval_Sobol_Modell_1.3.xlsx
@@ -6133,13 +6133,13 @@
                   <c:v>46.67049026489258</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>70.48661804199219</c:v>
+                  <c:v>70.48662567138672</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>52.26371383666992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>93.92532348632812</c:v>
+                  <c:v>93.92531585693359</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>76.93927001953125</c:v>
@@ -6151,7 +6151,7 @@
                   <c:v>70.07477569580078</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>80.1788330078125</c:v>
+                  <c:v>80.17882537841797</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>91.23839569091797</c:v>
@@ -6166,10 +6166,10 @@
                   <c:v>70.36222839355469</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>79.36884307861328</c:v>
+                  <c:v>79.36885070800781</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44.36966323852539</c:v>
+                  <c:v>44.36966705322266</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>82.54443359375</c:v>
@@ -6190,7 +6190,7 @@
                   <c:v>39.75214385986328</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>78.85257720947266</c:v>
+                  <c:v>78.85256958007812</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>64.11390686035156</c:v>
@@ -6202,7 +6202,7 @@
                   <c:v>75.83831024169922</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>76.53948211669922</c:v>
+                  <c:v>76.53948974609375</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>79.02455139160156</c:v>
@@ -6214,7 +6214,7 @@
                   <c:v>90.16634368896484</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>81.66330718994141</c:v>
+                  <c:v>81.66331481933594</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>82.04096221923828</c:v>
@@ -6235,13 +6235,13 @@
                   <c:v>73.6890869140625</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>31.10245704650879</c:v>
+                  <c:v>31.10245895385742</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>75.66584014892578</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>86.27623748779297</c:v>
+                  <c:v>86.27622985839844</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>81.99698638916016</c:v>
@@ -6256,37 +6256,37 @@
                   <c:v>75.880126953125</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>94.04085540771484</c:v>
+                  <c:v>94.04084777832031</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45.01105499267578</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>81.59592437744141</c:v>
+                  <c:v>81.59591674804688</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>21.66603660583496</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>58.9022102355957</c:v>
+                  <c:v>58.90221786499023</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>94.98924255371094</c:v>
+                  <c:v>94.98925018310547</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>89.36312103271484</c:v>
+                  <c:v>89.36312866210938</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>76.444580078125</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>81.41145324707031</c:v>
+                  <c:v>81.41146087646484</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>68.90959167480469</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>59.787353515625</c:v>
+                  <c:v>59.78734970092773</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>67.50395202636719</c:v>
@@ -6295,7 +6295,7 @@
                   <c:v>77.2620849609375</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>60.26010131835938</c:v>
+                  <c:v>60.26010894775391</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>91.90547180175781</c:v>
@@ -6310,7 +6310,7 @@
                   <c:v>76.46182250976562</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>45.09298324584961</c:v>
+                  <c:v>45.09297943115234</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>77.74132537841797</c:v>
@@ -6325,7 +6325,7 @@
                   <c:v>82.41926574707031</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>77.99362945556641</c:v>
+                  <c:v>77.99362182617188</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>65.35880279541016</c:v>
@@ -6334,7 +6334,7 @@
                   <c:v>72.97964477539062</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>31.23926544189453</c:v>
+                  <c:v>31.2392692565918</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>85.47887420654297</c:v>
@@ -6343,16 +6343,16 @@
                   <c:v>74.06867218017578</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>92.24605560302734</c:v>
+                  <c:v>92.24606323242188</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>21.84036254882812</c:v>
+                  <c:v>21.84036064147949</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>50.75467681884766</c:v>
+                  <c:v>50.75467300415039</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>40.31366729736328</c:v>
+                  <c:v>40.31366348266602</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>55.82845687866211</c:v>
@@ -6370,10 +6370,10 @@
                   <c:v>76.62502288818359</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>16.96194076538086</c:v>
+                  <c:v>16.96194458007812</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>25.60207557678223</c:v>
+                  <c:v>25.60206985473633</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>98.10906219482422</c:v>
@@ -6382,16 +6382,16 @@
                   <c:v>87.02287292480469</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>89.41402435302734</c:v>
+                  <c:v>89.41403198242188</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>59.15644454956055</c:v>
+                  <c:v>59.15645217895508</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>81.24766540527344</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>78.78612518310547</c:v>
+                  <c:v>78.78611755371094</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>80.72327423095703</c:v>
@@ -6409,7 +6409,7 @@
                   <c:v>80.18979644775391</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>30.17087364196777</c:v>
+                  <c:v>30.17087554931641</c:v>
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>80.20664978027344</c:v>
@@ -7279,7 +7279,7 @@
         <v>68.6634</v>
       </c>
       <c r="F7">
-        <v>70.48661804199219</v>
+        <v>70.48662567138672</v>
       </c>
       <c r="G7">
         <v>100</v>
@@ -7331,7 +7331,7 @@
         <v>95.0206</v>
       </c>
       <c r="F9">
-        <v>93.92532348632812</v>
+        <v>93.92531585693359</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7411,7 +7411,7 @@
         <v>74.6092</v>
       </c>
       <c r="F13">
-        <v>80.1788330078125</v>
+        <v>80.17882537841797</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7511,7 +7511,7 @@
         <v>78.5603</v>
       </c>
       <c r="F18">
-        <v>79.36884307861328</v>
+        <v>79.36885070800781</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>51.4731</v>
       </c>
       <c r="F19">
-        <v>44.36966323852539</v>
+        <v>44.36966705322266</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>79.8796</v>
       </c>
       <c r="F26">
-        <v>78.85257720947266</v>
+        <v>78.85256958007812</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>78.3235</v>
       </c>
       <c r="F30">
-        <v>76.53948211669922</v>
+        <v>76.53948974609375</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>80.1123</v>
       </c>
       <c r="F34">
-        <v>81.66330718994141</v>
+        <v>81.66331481933594</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>38.9776</v>
       </c>
       <c r="F41">
-        <v>31.10245704650879</v>
+        <v>31.10245895385742</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>86.46259999999999</v>
       </c>
       <c r="F43">
-        <v>86.27623748779297</v>
+        <v>86.27622985839844</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>93.9173</v>
       </c>
       <c r="F48">
-        <v>94.04085540771484</v>
+        <v>94.04084777832031</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>78.6082</v>
       </c>
       <c r="F50">
-        <v>81.59592437744141</v>
+        <v>81.59591674804688</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>61.0616</v>
       </c>
       <c r="F52">
-        <v>58.9022102355957</v>
+        <v>58.90221786499023</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>96.6493</v>
       </c>
       <c r="F53">
-        <v>94.98924255371094</v>
+        <v>94.98925018310547</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>91.5389</v>
       </c>
       <c r="F54">
-        <v>89.36312103271484</v>
+        <v>89.36312866210938</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>80.2208</v>
       </c>
       <c r="F56">
-        <v>81.41145324707031</v>
+        <v>81.41146087646484</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>51.7094</v>
       </c>
       <c r="F58">
-        <v>59.787353515625</v>
+        <v>59.78734970092773</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>87.4046</v>
       </c>
       <c r="F61">
-        <v>60.26010131835938</v>
+        <v>60.26010894775391</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>38.8903</v>
       </c>
       <c r="F66">
-        <v>45.09298324584961</v>
+        <v>45.09297943115234</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>83.73390000000001</v>
       </c>
       <c r="F71">
-        <v>77.99362945556641</v>
+        <v>77.99362182617188</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>25.8506</v>
       </c>
       <c r="F74">
-        <v>31.23926544189453</v>
+        <v>31.2392692565918</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>93.0134</v>
       </c>
       <c r="F77">
-        <v>92.24605560302734</v>
+        <v>92.24606323242188</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>21.8916</v>
       </c>
       <c r="F78">
-        <v>21.84036254882812</v>
+        <v>21.84036064147949</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>50.5684</v>
       </c>
       <c r="F79">
-        <v>50.75467681884766</v>
+        <v>50.75467300415039</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>45.8515</v>
       </c>
       <c r="F80">
-        <v>40.31366729736328</v>
+        <v>40.31366348266602</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>22.8756</v>
       </c>
       <c r="F86">
-        <v>16.96194076538086</v>
+        <v>16.96194458007812</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8891,7 +8891,7 @@
         <v>28.121</v>
       </c>
       <c r="F87">
-        <v>25.60207557678223</v>
+        <v>25.60206985473633</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8951,7 +8951,7 @@
         <v>89.8989</v>
       </c>
       <c r="F90">
-        <v>89.41402435302734</v>
+        <v>89.41403198242188</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8971,7 +8971,7 @@
         <v>57.9143</v>
       </c>
       <c r="F91">
-        <v>59.15644454956055</v>
+        <v>59.15645217895508</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -9011,7 +9011,7 @@
         <v>80.2654</v>
       </c>
       <c r="F93">
-        <v>78.78612518310547</v>
+        <v>78.78611755371094</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -9131,7 +9131,7 @@
         <v>21.5603</v>
       </c>
       <c r="F99">
-        <v>30.17087364196777</v>
+        <v>30.17087554931641</v>
       </c>
     </row>
     <row r="100" spans="1:6">
